--- a/secondNormalForm.xlsx
+++ b/secondNormalForm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karth\OneDrive\Desktop\my stuffs\Denormalised_dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F076F6B-CBC5-4F13-A3FC-91399C444C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B054C8B1-D415-43CB-BADD-3A1B0D93AF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2E62416A-70F5-4B75-9695-DAEC1D6A1865}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="92">
   <si>
     <t>ORDER_NUMBER</t>
   </si>
@@ -297,13 +297,28 @@
   </si>
   <si>
     <t>2. no partial dependency meaning, the non-key columns should depend on whole primary keys especially when primary keys are composite (2 or more primary keys)</t>
+  </si>
+  <si>
+    <t>Customer_ID</t>
+  </si>
+  <si>
+    <t>Custome_ID</t>
+  </si>
+  <si>
+    <t>Order_ID</t>
+  </si>
+  <si>
+    <t>Orders_table</t>
+  </si>
+  <si>
+    <t>Customer's Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,14 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -363,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +395,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -401,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -417,34 +430,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1248,29 +1256,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1766,8 +1774,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1782,21 +1790,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CF0E7B-4F82-46B3-819B-CF66E9CAE35E}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" style="8" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" style="14" customWidth="1"/>
     <col min="8" max="8" width="28.33203125" customWidth="1"/>
     <col min="9" max="9" width="26.44140625" customWidth="1"/>
     <col min="10" max="10" width="29.21875" customWidth="1"/>
@@ -1805,505 +1813,371 @@
     <col min="14" max="14" width="23.33203125" customWidth="1"/>
     <col min="15" max="15" width="13.5546875" customWidth="1"/>
     <col min="16" max="16" width="17.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="17" max="17" width="21.109375" customWidth="1"/>
     <col min="18" max="18" width="22.77734375" customWidth="1"/>
     <col min="19" max="19" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>86</v>
       </c>
     </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="G5"/>
+    </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="12">
+      <c r="L7" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11">
         <v>10101</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C8" s="2">
         <v>30</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D8" s="2">
         <v>202</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E8" s="2">
         <v>6060</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F8" s="3">
         <v>37704</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="18">
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="13">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2125357818</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="2">
-        <v>10022</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="2" t="s">
+      <c r="L8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>2</v>
+      </c>
+      <c r="B9" s="11">
+        <v>10102</v>
+      </c>
+      <c r="C9" s="2">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2">
+        <v>550</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>37807</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="13">
+        <v>2</v>
+      </c>
+      <c r="L9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>3</v>
+      </c>
+      <c r="B10" s="11">
+        <v>10103</v>
+      </c>
+      <c r="C10" s="2">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2">
+        <v>420</v>
+      </c>
+      <c r="E10" s="2">
+        <v>17220</v>
+      </c>
+      <c r="F10" s="3">
+        <v>37628</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="13">
+        <v>3</v>
+      </c>
+      <c r="L10" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="11">
+        <v>10104</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>780</v>
+      </c>
+      <c r="E11" s="2">
+        <v>35100</v>
+      </c>
+      <c r="F11" s="3">
+        <v>37858</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="13">
+        <v>4</v>
+      </c>
+      <c r="L11" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>5</v>
+      </c>
+      <c r="B12" s="11">
+        <v>10105</v>
+      </c>
+      <c r="C12" s="2">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2">
+        <v>850</v>
+      </c>
+      <c r="E12" s="2">
+        <v>41650</v>
+      </c>
+      <c r="F12" s="3">
+        <v>37904</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="13">
+        <v>5</v>
+      </c>
+      <c r="L12" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11">
+        <v>10106</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>780</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6520</v>
+      </c>
+      <c r="F13" s="3">
+        <v>38479</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>10102</v>
-      </c>
-      <c r="B8" s="2">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>550</v>
-      </c>
-      <c r="D8" s="2">
-        <v>18700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>37807</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="18">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2123356666</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2">
-        <v>51100</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="12">
-        <v>10103</v>
-      </c>
-      <c r="B9" s="2">
-        <v>41</v>
-      </c>
-      <c r="C9" s="2">
-        <v>420</v>
-      </c>
-      <c r="D9" s="2">
-        <v>17220</v>
-      </c>
-      <c r="E9" s="3">
-        <v>37628</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="K13" s="13">
+        <v>4</v>
+      </c>
+      <c r="L13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11">
+        <v>10106</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>850</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6520</v>
+      </c>
+      <c r="F14" s="3">
+        <v>38480</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="18">
-        <v>3</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2121257800</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2">
-        <v>75508</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>10104</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>780</v>
-      </c>
-      <c r="D10" s="2">
-        <v>35100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>37858</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="18">
-        <v>4</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="2">
-        <v>6265557265</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="2">
-        <v>90003</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
-        <v>10105</v>
-      </c>
-      <c r="B11" s="2">
-        <v>49</v>
-      </c>
-      <c r="C11" s="2">
-        <v>850</v>
-      </c>
-      <c r="D11" s="2">
-        <v>41650</v>
-      </c>
-      <c r="E11" s="3">
-        <v>37904</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="H14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="13">
         <v>5</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="2">
-        <v>6505551386</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="12">
-        <v>10106</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>780</v>
-      </c>
-      <c r="D12" s="2">
-        <v>6520</v>
-      </c>
-      <c r="E12" s="3">
-        <v>38479</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="18">
-        <v>4</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="2">
-        <v>6577771000</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2">
-        <v>75016</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
-        <v>10106</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>850</v>
-      </c>
-      <c r="D13" s="2">
-        <v>6520</v>
-      </c>
-      <c r="E13" s="3">
-        <v>38480</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="18">
-        <v>5</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="2">
-        <v>6577771000</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="2">
-        <v>75016</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+      <c r="L14" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2313,11 +2187,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2327,11 +2201,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="12">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>2</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2341,11 +2215,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>3</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2355,11 +2229,11 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="12">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>4</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2369,11 +2243,11 @@
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="12">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>5</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2383,13 +2257,221 @@
         <v>900</v>
       </c>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2125357818</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10022</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2123356666</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>51100</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2121257800</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <v>75508</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>4</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6265557265</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="2">
+        <v>90003</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>5</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6505551386</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>6</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2">
+        <v>6577771000</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
+        <v>75016</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A3:XFD3"/>
     <mergeCell ref="A4:XFD4"/>
-    <mergeCell ref="A15:XFD15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
